--- a/3. WYJAZDY/6. International - RZESZOW/Participant list.xlsx
+++ b/3. WYJAZDY/6. International - RZESZOW/Participant list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301DFFF5-434E-4795-9F84-75226F9533F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E043747-C6A7-4615-BCF9-38128CC59058}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t xml:space="preserve">Lp.  </t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">Tena Fabijanić </t>
   </si>
   <si>
-    <t xml:space="preserve">Jasmien Wellens </t>
-  </si>
-  <si>
     <t xml:space="preserve">Date of arrival </t>
   </si>
   <si>
@@ -185,18 +182,32 @@
   </si>
   <si>
     <t>71C7VL6</t>
+  </si>
+  <si>
+    <t>10:45 a.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,8 +268,21 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +298,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,15 +344,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -331,31 +360,48 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,7 +687,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,638 +702,638 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>24</v>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8">
+        <v>44816</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="8">
+        <v>44820</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9">
+      <c r="G2" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
         <v>44816</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="8">
+        <v>44820</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>44816</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44820</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>44816</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44820</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44816</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44820</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="9">
+      <c r="C7" s="8">
+        <v>44816</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8">
         <v>44820</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44817</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44819</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44817</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44820</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9">
-        <v>44816</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44817</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="8">
         <v>44820</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>44816</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="8">
+        <v>44817</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8">
         <v>44820</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9">
-        <v>44816</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="9">
-        <v>44820</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="9">
-        <v>44816</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="9">
-        <v>44820</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="9">
-        <v>44816</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="9">
-        <v>44820</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="C12" s="8">
         <v>44817</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="9">
-        <v>44819</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9">
-        <v>44817</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9">
-        <v>44820</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9">
-        <v>44817</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9">
-        <v>44820</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="9">
-        <v>44817</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="9">
-        <v>44820</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9">
-        <v>44817</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>44820</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8">
+        <v>44817</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8">
+        <v>44820</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="8">
         <v>44817</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8">
+        <v>44820</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="26">
+        <v>44817</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="26">
+        <v>44820</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="E13" s="9">
-        <v>44820</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="9">
-        <v>44817</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="9">
-        <v>44820</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9">
-        <v>44817</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="9">
-        <v>44820</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="B20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="B26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="14"/>
+      <c r="E34" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
